--- a/config_debug/lottery_config.xlsx
+++ b/config_debug/lottery_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" tabRatio="690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" tabRatio="690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main|幸运抽奖" sheetId="4" r:id="rId1"/>
@@ -527,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -939,7 +939,7 @@
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>2</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>

--- a/config_debug/lottery_config.xlsx
+++ b/config_debug/lottery_config.xlsx
@@ -115,7 +115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000000_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +165,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF111F2C"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +177,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -217,7 +223,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,8 +246,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -528,7 +539,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -711,7 +722,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -747,364 +758,364 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8">
-        <v>300</v>
-      </c>
-      <c r="E2" s="3">
-        <v>24.999999999999996</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>600</v>
+      </c>
+      <c r="E2" s="10">
+        <v>10</v>
       </c>
       <c r="F2" s="7"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8">
-        <v>250</v>
-      </c>
-      <c r="E3" s="3">
-        <v>200.00000000000003</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>285</v>
+      </c>
+      <c r="E3" s="10">
+        <v>350000</v>
       </c>
       <c r="F3" s="7"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1500</v>
-      </c>
-      <c r="E4" s="3">
-        <v>15</v>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2400</v>
+      </c>
+      <c r="E4" s="10">
+        <v>10</v>
       </c>
       <c r="F4" s="7"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
-        <v>300</v>
-      </c>
-      <c r="E5" s="3">
-        <v>100.00000000000001</v>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>600</v>
+      </c>
+      <c r="E5" s="10">
+        <v>10</v>
       </c>
       <c r="F5" s="7"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8">
-        <v>250</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4998160</v>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>300</v>
+      </c>
+      <c r="E6" s="10">
+        <v>99930.000000000189</v>
       </c>
       <c r="F6" s="7"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
         <v>900</v>
       </c>
-      <c r="E7" s="3">
-        <v>450</v>
+      <c r="E7" s="10">
+        <v>10</v>
       </c>
       <c r="F7" s="7"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8">
-        <v>300</v>
-      </c>
-      <c r="E8" s="3">
-        <v>425.00000000000006</v>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
+        <v>600</v>
+      </c>
+      <c r="E8" s="10">
+        <v>10</v>
       </c>
       <c r="F8" s="7"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8">
-        <v>250</v>
-      </c>
-      <c r="E9" s="3">
-        <v>400.00000000000006</v>
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>300</v>
+      </c>
+      <c r="E9" s="10">
+        <v>10</v>
       </c>
       <c r="F9" s="7"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1200</v>
-      </c>
-      <c r="E10" s="3">
-        <v>24.999999999999996</v>
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2400</v>
+      </c>
+      <c r="E10" s="10">
+        <v>10</v>
       </c>
       <c r="F10" s="7"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8">
-        <v>300</v>
-      </c>
-      <c r="E11" s="3">
-        <v>200.00000000000003</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>255</v>
+      </c>
+      <c r="E11" s="10">
+        <v>550000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8">
-        <v>4500</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>47500</v>
+      </c>
+      <c r="E12" s="9">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="8">
-        <v>4750000</v>
-      </c>
-      <c r="E13" s="3">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="D13" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="E13" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
-        <v>25000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="E14" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="8">
-        <v>4250000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="D15" s="9">
+        <v>5000000</v>
+      </c>
+      <c r="E15" s="9">
+        <v>99930.000000000189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8">
-        <v>4750</v>
-      </c>
-      <c r="E16" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9">
+        <v>100000</v>
+      </c>
+      <c r="E16" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="8">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="8">
-        <v>20000000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="D17" s="9">
+        <v>100000000</v>
+      </c>
+      <c r="E17" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8">
-        <v>4250</v>
-      </c>
-      <c r="E18" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="B18" s="8">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>42500</v>
+      </c>
+      <c r="E18" s="9">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="8">
-        <v>4500000</v>
-      </c>
-      <c r="E19" s="3">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="D19" s="9">
+        <v>5000000</v>
+      </c>
+      <c r="E19" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8">
-        <v>15000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <v>400000</v>
+      </c>
+      <c r="E20" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="8">
-        <v>4000000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>9900000</v>
+      <c r="D21" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="E21" s="9">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">

--- a/config_debug/lottery_config.xlsx
+++ b/config_debug/lottery_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3DBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -539,7 +539,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -722,7 +722,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="9">
-        <v>47500</v>
+        <v>4750</v>
       </c>
       <c r="E12" s="9">
         <v>350000</v>
@@ -1061,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="9">
-        <v>42500</v>
+        <v>4250</v>
       </c>
       <c r="E18" s="9">
         <v>550000</v>

--- a/config_debug/lottery_config.xlsx
+++ b/config_debug/lottery_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>id|</t>
   </si>
@@ -66,10 +66,16 @@
     <t>item_num|物品数量</t>
   </si>
   <si>
+    <t>in_kind_name|实物名称</t>
+  </si>
+  <si>
     <t>weight|权重</t>
   </si>
   <si>
     <t>shop_gold_sum</t>
+  </si>
+  <si>
+    <t>华为手机</t>
   </si>
   <si>
     <t>jing_bi</t>
@@ -80,10 +86,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000000_ "/>
   </numFmts>
   <fonts count="23">
@@ -109,12 +115,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -129,6 +143,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -137,9 +181,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,47 +196,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,45 +212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -252,6 +220,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -284,187 +290,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,9 +501,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,8 +513,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,6 +535,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -537,26 +578,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,21 +596,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -598,10 +604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,133 +616,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -759,7 +765,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -767,6 +772,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1276,26 +1282,26 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A2" sqref="A2:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="33.875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="68.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="4" max="6" width="20.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="68.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="26.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39.75" customHeight="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="39.75" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1312,10 +1318,13 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1323,18 +1332,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4">
         <v>600</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
         <v>10</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="G2" s="5"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1342,18 +1352,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4">
         <v>285</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
         <v>350000</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="G3" s="5"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1361,18 +1372,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4">
         <v>2400</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" s="5"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1380,18 +1392,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4">
         <v>600</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <v>10</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" s="5"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1399,18 +1412,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4">
         <v>300</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
         <v>99930.0000000002</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="G6" s="5"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1418,18 +1432,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4">
         <v>900</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
         <v>10</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="G7" s="5"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1437,18 +1452,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="4">
         <v>600</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="G8" s="5"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1456,18 +1472,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4">
         <v>300</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
         <v>10</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="G9" s="5"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1475,18 +1492,19 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="4">
         <v>2400</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
         <v>10</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="G10" s="5"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1494,194 +1512,210 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4">
         <v>255</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
         <v>550000</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7">
+      <c r="G11" s="5"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="C12" s="6"/>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7">
+    <row r="13" spans="1:6">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="7">
+        <v>4750</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7">
+        <v>99930.0000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7">
+        <v>100000</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="7">
+        <v>100000000</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4250</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="7">
+        <v>400000</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7">
         <v>10000000</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7">
-        <v>2</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="8">
-        <v>4750</v>
-      </c>
-      <c r="E14" s="8">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7">
-        <v>2</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="8">
-        <v>5000000</v>
-      </c>
-      <c r="E15" s="8">
-        <v>99930.0000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7">
-        <v>2</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="8">
-        <v>100000</v>
-      </c>
-      <c r="E16" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="8">
-        <v>100000000</v>
-      </c>
-      <c r="E17" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="8">
-        <v>4250</v>
-      </c>
-      <c r="E18" s="8">
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7">
-        <v>2</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="8">
-        <v>5000000</v>
-      </c>
-      <c r="E19" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7">
-        <v>2</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="8">
-        <v>400000</v>
-      </c>
-      <c r="E20" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7">
-        <v>2</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="8">
-        <v>10000000</v>
-      </c>
-      <c r="E21" s="8">
-        <v>10</v>
-      </c>
-    </row>
     <row r="22" ht="21" customHeight="1"/>
-    <row r="23" ht="18.75" customHeight="1" spans="4:4">
-      <c r="D23" s="9"/>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" s="9"/>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" s="9"/>
+    <row r="23" ht="18.75" customHeight="1" spans="4:5">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/lottery_config.xlsx
+++ b/config_debug/lottery_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="690" activeTab="2"/>
+    <workbookView windowWidth="19380" windowHeight="11055" tabRatio="690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main|幸运抽奖" sheetId="4" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <t>item_num|物品数量</t>
   </si>
   <si>
-    <t>in_kind_name|实物名称</t>
+    <t>in_kind_name</t>
   </si>
   <si>
     <t>weight|权重</t>
@@ -75,10 +75,10 @@
     <t>shop_gold_sum</t>
   </si>
   <si>
+    <t>jing_bi</t>
+  </si>
+  <si>
     <t>华为手机</t>
-  </si>
-  <si>
-    <t>jing_bi</t>
   </si>
 </sst>
 </file>
@@ -86,13 +86,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000000_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,82 +117,89 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,6 +211,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -230,29 +245,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,181 +297,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,22 +506,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,25 +536,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -563,6 +552,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,157 +594,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1100,7 +1107,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1211,7 +1218,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1285,7 +1292,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1531,15 +1538,15 @@
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>4750</v>
+      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="7">
-        <v>10</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1550,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
         <v>10000000</v>
@@ -1567,15 +1574,13 @@
       <c r="B14" s="6">
         <v>2</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="7">
-        <v>4750</v>
-      </c>
-      <c r="E14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="F14" s="7">
-        <v>350000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1586,7 +1591,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="7">
         <v>5000000</v>
@@ -1622,7 +1627,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="7">
         <v>100000000</v>
@@ -1658,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="7">
         <v>5000000</v>
@@ -1694,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="7">
         <v>10000000</v>

--- a/config_debug/lottery_config.xlsx
+++ b/config_debug/lottery_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19380" windowHeight="11055" tabRatio="690" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main|幸运抽奖" sheetId="4" r:id="rId1"/>
@@ -75,10 +75,10 @@
     <t>shop_gold_sum</t>
   </si>
   <si>
+    <t>华为手机</t>
+  </si>
+  <si>
     <t>jing_bi</t>
-  </si>
-  <si>
-    <t>华为手机</t>
   </si>
 </sst>
 </file>
@@ -86,13 +86,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000000_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,88 +115,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -211,55 +174,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,6 +185,83 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -297,187 +290,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,10 +531,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -552,15 +543,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,157 +585,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1289,10 +1282,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1538,15 +1531,13 @@
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="7">
-        <v>4750</v>
-      </c>
-      <c r="E12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="F12" s="7">
-        <v>350000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1557,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
         <v>10000000</v>
@@ -1574,13 +1565,15 @@
       <c r="B14" s="6">
         <v>2</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4750</v>
+      </c>
+      <c r="E14" s="7"/>
       <c r="F14" s="7">
-        <v>10</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1591,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="7">
         <v>5000000</v>
@@ -1627,7 +1620,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7">
         <v>100000000</v>
@@ -1663,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7">
         <v>5000000</v>
@@ -1699,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="7">
         <v>10000000</v>
@@ -1721,6 +1714,14 @@
     <row r="27" spans="4:5">
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/lottery_config.xlsx
+++ b/config_debug/lottery_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -95,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000000_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -208,7 +208,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -685,7 +685,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1020,10 +1020,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="7">
-        <v>100000000</v>
+        <v>1</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7">
@@ -1092,10 +1092,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="7">
-        <v>1</v>
+        <v>10000000</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7">
@@ -1126,6 +1126,6 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>